--- a/data/trans_orig/P57B3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14382</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8343</v>
+        <v>7553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23921</v>
+        <v>23298</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02617529912592268</v>
+        <v>0.02617529912592269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0151839176223609</v>
+        <v>0.01374575100027863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04353486078704458</v>
+        <v>0.04240041972002377</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>12021</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7822</v>
+        <v>7373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19140</v>
+        <v>18293</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02461325821132239</v>
+        <v>0.0246132582113224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01601620875788791</v>
+        <v>0.01509607714414074</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03918915425650558</v>
+        <v>0.03745314876657049</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -783,19 +783,19 @@
         <v>26404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18137</v>
+        <v>18357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36796</v>
+        <v>37997</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02544022222217284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01747518630159567</v>
+        <v>0.01768711066477661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03545305156480463</v>
+        <v>0.03661080090005446</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>37595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26246</v>
+        <v>26154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51624</v>
+        <v>53285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06842212912793942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04776711046377006</v>
+        <v>0.04759865325009943</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0939526987325115</v>
+        <v>0.0969755635985772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -833,19 +833,19 @@
         <v>32974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24127</v>
+        <v>24097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45391</v>
+        <v>44473</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06751360658500535</v>
+        <v>0.06751360658500534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04939875452266888</v>
+        <v>0.04933809142443802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09293650438075521</v>
+        <v>0.09105628875164273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -854,19 +854,19 @@
         <v>70570</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55829</v>
+        <v>56273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89149</v>
+        <v>91984</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06799458979039408</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05379188413671029</v>
+        <v>0.054219224492254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0858954913157173</v>
+        <v>0.08862740365198181</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>148850</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>127329</v>
+        <v>126342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170958</v>
+        <v>171424</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2708997836997821</v>
+        <v>0.2708997836997822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2317323631232628</v>
+        <v>0.2299372676527925</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3111366349043729</v>
+        <v>0.3119842667116804</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>205</v>
@@ -904,19 +904,19 @@
         <v>140313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121416</v>
+        <v>123490</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158683</v>
+        <v>157638</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2872843327092743</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2485937870419463</v>
+        <v>0.2528403219363071</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3248969878254408</v>
+        <v>0.3227561035623822</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>362</v>
@@ -925,19 +925,19 @@
         <v>289163</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>261538</v>
+        <v>260711</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>317323</v>
+        <v>316656</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2786101473929873</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2519937205365922</v>
+        <v>0.2511971484727549</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3057428480831121</v>
+        <v>0.3050998667213019</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>348636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>325053</v>
+        <v>324608</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372353</v>
+        <v>371273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6345027880463557</v>
+        <v>0.634502788046356</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5915813206334686</v>
+        <v>0.5907714476509213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.677666598958686</v>
+        <v>0.6757000838563145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>418</v>
@@ -975,19 +975,19 @@
         <v>303102</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>284068</v>
+        <v>281817</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>322329</v>
+        <v>321613</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.620588802494398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5816167896369382</v>
+        <v>0.5770086590297365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6599534502850654</v>
+        <v>0.6584892310007029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>763</v>
@@ -996,19 +996,19 @@
         <v>651739</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>620286</v>
+        <v>623579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>679846</v>
+        <v>684129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6279550405944457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5976498402652086</v>
+        <v>0.6008229693216898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6550366422965539</v>
+        <v>0.6591628267371665</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>13410</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7748</v>
+        <v>8079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21692</v>
+        <v>21576</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02775250755190918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01603429896529845</v>
+        <v>0.01671947997382462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04489108495317571</v>
+        <v>0.04465074142791423</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -1121,19 +1121,19 @@
         <v>13992</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8857</v>
+        <v>9084</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21826</v>
+        <v>21548</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03320530505998671</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02101878647062201</v>
+        <v>0.02155724304849746</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05179659837173522</v>
+        <v>0.0511361534747146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>37</v>
@@ -1142,19 +1142,19 @@
         <v>27402</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19382</v>
+        <v>19571</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38619</v>
+        <v>38696</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03029253836548697</v>
+        <v>0.03029253836548698</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02142655313363137</v>
+        <v>0.02163485657344681</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04269234376715569</v>
+        <v>0.04277728852319077</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>29450</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20668</v>
+        <v>20599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41185</v>
+        <v>41315</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06094533274727163</v>
+        <v>0.06094533274727162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04277217200606204</v>
+        <v>0.04263010484919953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08523205962178926</v>
+        <v>0.08550036347597929</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1192,19 +1192,19 @@
         <v>28422</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20838</v>
+        <v>20732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38071</v>
+        <v>38235</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06744991026232548</v>
+        <v>0.06744991026232547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04945216536764111</v>
+        <v>0.04920171691843717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09034940085116963</v>
+        <v>0.09073717882972109</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -1213,19 +1213,19 @@
         <v>57871</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46228</v>
+        <v>45227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72234</v>
+        <v>71033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06397530539765289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05110420778230658</v>
+        <v>0.04999744296111936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07985238715793516</v>
+        <v>0.07852561983577336</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>175014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152662</v>
+        <v>151224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196281</v>
+        <v>195717</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.362189544136874</v>
+        <v>0.3621895441368739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3159316164715857</v>
+        <v>0.3129566143269791</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4062002053945597</v>
+        <v>0.4050337232882199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -1263,19 +1263,19 @@
         <v>127056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112440</v>
+        <v>110152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145928</v>
+        <v>143451</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3015254286184551</v>
+        <v>0.3015254286184552</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2668385601118779</v>
+        <v>0.2614102369298256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3463112099683363</v>
+        <v>0.3404329041386848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>353</v>
@@ -1284,19 +1284,19 @@
         <v>302070</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>275454</v>
+        <v>271963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331893</v>
+        <v>328783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3339308892964977</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3045077780555402</v>
+        <v>0.3006477747278206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3668994171545478</v>
+        <v>0.3634616619430849</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>265338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>244507</v>
+        <v>243351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286243</v>
+        <v>289499</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5491126155639453</v>
+        <v>0.5491126155639452</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5060036231508456</v>
+        <v>0.5036120293864998</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5923750634143055</v>
+        <v>0.599114551508715</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>343</v>
@@ -1334,19 +1334,19 @@
         <v>251907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>235283</v>
+        <v>234084</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>268807</v>
+        <v>270048</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5978193560592326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5583659216513243</v>
+        <v>0.5555212660404543</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6379250078693073</v>
+        <v>0.640870901908</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>602</v>
@@ -1355,19 +1355,19 @@
         <v>517245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>488349</v>
+        <v>491236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>545219</v>
+        <v>548193</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5718012669403624</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5398571969121547</v>
+        <v>0.5430488488257255</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6027252600759746</v>
+        <v>0.6060135831580055</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>20218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12656</v>
+        <v>12445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30012</v>
+        <v>29513</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04287012634917158</v>
+        <v>0.04287012634917157</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02683665900276816</v>
+        <v>0.02638849421413278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06363640059524436</v>
+        <v>0.0625796190933499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1480,19 +1480,19 @@
         <v>7589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4187</v>
+        <v>4206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12869</v>
+        <v>13229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04047728321104332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02233248593561557</v>
+        <v>0.02243009018429971</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06863771105579382</v>
+        <v>0.07055708133936119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -1501,19 +1501,19 @@
         <v>27807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19869</v>
+        <v>19220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39152</v>
+        <v>38907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0421894322732005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03014551589895357</v>
+        <v>0.0291612592226571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05940185879153911</v>
+        <v>0.05902967149249221</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>35023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26070</v>
+        <v>25190</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48275</v>
+        <v>46378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07426208235955654</v>
+        <v>0.07426208235955653</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05527940139513347</v>
+        <v>0.05341161633401533</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1023618527588713</v>
+        <v>0.09833915168702798</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -1551,19 +1551,19 @@
         <v>20830</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14290</v>
+        <v>15118</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28320</v>
+        <v>29014</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1110970217055738</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07621387626219649</v>
+        <v>0.08063188728965148</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.151045027919026</v>
+        <v>0.1547450424051871</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>74</v>
@@ -1572,19 +1572,19 @@
         <v>55853</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42906</v>
+        <v>44251</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>68481</v>
+        <v>70112</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08474054816538479</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06509698621183108</v>
+        <v>0.06713709750842098</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1038996336206869</v>
+        <v>0.1063744561718132</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>135971</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117545</v>
+        <v>116930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155394</v>
+        <v>156932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.288311916002268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2492414788190573</v>
+        <v>0.2479366833552322</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3294948481583588</v>
+        <v>0.3327568645905953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1622,19 +1622,19 @@
         <v>60219</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50509</v>
+        <v>50658</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71646</v>
+        <v>70386</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.321174854797793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2693882392013422</v>
+        <v>0.2701827917443047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3821156891400878</v>
+        <v>0.3753961340765954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -1643,19 +1643,19 @@
         <v>196191</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174819</v>
+        <v>175382</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>219383</v>
+        <v>219544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2976604635107403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.265235731377537</v>
+        <v>0.2660892599923288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3328478876760424</v>
+        <v>0.3330922924517596</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>280400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258784</v>
+        <v>258092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>301064</v>
+        <v>301854</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5945558752890039</v>
+        <v>0.5945558752890038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5487232972293411</v>
+        <v>0.547254895581627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6383731449499744</v>
+        <v>0.6400464178425305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1693,19 +1693,19 @@
         <v>98858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87533</v>
+        <v>87396</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111735</v>
+        <v>110040</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.52725084028559</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4668480446330673</v>
+        <v>0.4661194663771556</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5959282338857491</v>
+        <v>0.5868871183138124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>423</v>
@@ -1714,19 +1714,19 @@
         <v>379258</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>355352</v>
+        <v>354329</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403368</v>
+        <v>404005</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5754095560506745</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5391393444121517</v>
+        <v>0.537587694871393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6119899608392454</v>
+        <v>0.6129565265669593</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>45175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33950</v>
+        <v>34349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58752</v>
+        <v>59439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03994551082198328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03002011700256509</v>
+        <v>0.03037276630332611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05195128395630081</v>
+        <v>0.05255860590145934</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1839,19 +1839,19 @@
         <v>26460</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18780</v>
+        <v>19768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35664</v>
+        <v>36435</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03072424592501036</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02180619837239735</v>
+        <v>0.02295407235135742</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04141151918478245</v>
+        <v>0.04230672154138796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1860,19 +1860,19 @@
         <v>71635</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58712</v>
+        <v>56976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88197</v>
+        <v>87835</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03595908832157998</v>
+        <v>0.03595908832157999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02947196667811565</v>
+        <v>0.02860076440230774</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04427286534889772</v>
+        <v>0.04409110579136829</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>102473</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84665</v>
+        <v>84279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123549</v>
+        <v>121309</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09061096362528685</v>
+        <v>0.09061096362528683</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07486410577937466</v>
+        <v>0.0745231051597077</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1092466052590733</v>
+        <v>0.1072659096803887</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1910,19 +1910,19 @@
         <v>57251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45654</v>
+        <v>46401</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70597</v>
+        <v>71856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.06647762001350997</v>
+        <v>0.06647762001350999</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05301183630303437</v>
+        <v>0.05387895058929395</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08197415730332412</v>
+        <v>0.08343590077755371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>194</v>
@@ -1931,19 +1931,19 @@
         <v>159725</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133264</v>
+        <v>135816</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>180807</v>
+        <v>183903</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08017793680534013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06689524960078573</v>
+        <v>0.06817656487123565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09076058264934264</v>
+        <v>0.09231468425688701</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>377034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>342876</v>
+        <v>345659</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>415352</v>
+        <v>412425</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3333888427935147</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3031841515129671</v>
+        <v>0.3056451689885482</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3672706025407703</v>
+        <v>0.3646822545521932</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>434</v>
@@ -1981,19 +1981,19 @@
         <v>285111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>263947</v>
+        <v>262317</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>308604</v>
+        <v>311065</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3310578074201216</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.306483364055834</v>
+        <v>0.3045914273140029</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3583369224258685</v>
+        <v>0.3611947531544462</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>804</v>
@@ -2002,19 +2002,19 @@
         <v>662145</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>618720</v>
+        <v>620770</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>699785</v>
+        <v>707955</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3323811185858758</v>
+        <v>0.3323811185858759</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.310582622798491</v>
+        <v>0.3116115807685897</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3512754824429751</v>
+        <v>0.3553764043772886</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>606232</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>569869</v>
+        <v>568282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640557</v>
+        <v>640312</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5360546827592153</v>
+        <v>0.5360546827592152</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.503900568700674</v>
+        <v>0.5024972110605593</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5664058917498067</v>
+        <v>0.5661890827054145</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>677</v>
@@ -2052,19 +2052,19 @@
         <v>492389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>468566</v>
+        <v>466024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>519247</v>
+        <v>517885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5717403266413581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5440779768028758</v>
+        <v>0.54112600933391</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6029270290633322</v>
+        <v>0.6013452111099684</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1256</v>
@@ -2073,19 +2073,19 @@
         <v>1098622</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1057493</v>
+        <v>1047750</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1146468</v>
+        <v>1138345</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5514818562872041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5308363281123012</v>
+        <v>0.5259453895694964</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5754995786948055</v>
+        <v>0.5714219026682598</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>48258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36019</v>
+        <v>35569</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62953</v>
+        <v>63817</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08496630519033394</v>
+        <v>0.08496630519033392</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06341774792655663</v>
+        <v>0.06262599434362906</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1108398425066023</v>
+        <v>0.112360317041623</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -2198,19 +2198,19 @@
         <v>59102</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>48185</v>
+        <v>48133</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>71564</v>
+        <v>71323</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07127690706495268</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05811081971787836</v>
+        <v>0.05804863719245267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08630648804250193</v>
+        <v>0.08601545606441631</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>151</v>
@@ -2219,19 +2219,19 @@
         <v>107360</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89377</v>
+        <v>89770</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>126777</v>
+        <v>125466</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07684186959852864</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06397130667431061</v>
+        <v>0.06425227388484292</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09073998256767092</v>
+        <v>0.08980169378514745</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>54859</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42841</v>
+        <v>42816</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71134</v>
+        <v>69745</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.09658827274256145</v>
+        <v>0.09658827274256143</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07542858326929029</v>
+        <v>0.07538452403786032</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1252447044896322</v>
+        <v>0.1227974627953443</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2269,19 +2269,19 @@
         <v>104242</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>88992</v>
+        <v>90229</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>122739</v>
+        <v>123563</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1257167903980503</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1073240632152936</v>
+        <v>0.1088166550181857</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1480241189522703</v>
+        <v>0.149016930594395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>234</v>
@@ -2290,19 +2290,19 @@
         <v>159101</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>138596</v>
+        <v>139632</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181352</v>
+        <v>186434</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1138755751797672</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0991990420418894</v>
+        <v>0.09994101288451959</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.129801216969115</v>
+        <v>0.1334391907482525</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>205398</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>180295</v>
+        <v>181253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>231190</v>
+        <v>231669</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3616398108569496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3174409687629137</v>
+        <v>0.3191277590596671</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4070504312029132</v>
+        <v>0.4078935804699338</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>459</v>
@@ -2340,19 +2340,19 @@
         <v>293031</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>270003</v>
+        <v>269576</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>315304</v>
+        <v>316103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3533962839477772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3256245434020861</v>
+        <v>0.3251090182585855</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3802579902449746</v>
+        <v>0.3812216573228042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>650</v>
@@ -2361,19 +2361,19 @@
         <v>498429</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>465430</v>
+        <v>465680</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>532883</v>
+        <v>536606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3567474114388401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3331281782504617</v>
+        <v>0.333307309455184</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3814074876564146</v>
+        <v>0.384071978085892</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>259449</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>233104</v>
+        <v>235350</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>285200</v>
+        <v>288206</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4568056112101549</v>
+        <v>0.4568056112101548</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4104210461096094</v>
+        <v>0.414374688992417</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5021446898650127</v>
+        <v>0.5074369366800606</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>556</v>
@@ -2411,19 +2411,19 @@
         <v>372810</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>349383</v>
+        <v>348485</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>396625</v>
+        <v>395901</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4496100185892198</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4213571363869929</v>
+        <v>0.4202741379817779</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4783313683802454</v>
+        <v>0.4774575640047666</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>799</v>
@@ -2432,19 +2432,19 @@
         <v>632259</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>598124</v>
+        <v>592775</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>672376</v>
+        <v>668121</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.452535143782864</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4281030085695239</v>
+        <v>0.4242744296734269</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4812489568743114</v>
+        <v>0.4782032965960077</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>2256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7173</v>
+        <v>6214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.009508356464043603</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002170052717368104</v>
+        <v>0.002128227227249712</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0302385864898668</v>
+        <v>0.02619542083594308</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -2557,19 +2557,19 @@
         <v>39497</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>30182</v>
+        <v>30062</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53380</v>
+        <v>52868</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04691355660843088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03584924796894992</v>
+        <v>0.03570664372420358</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06340337650816884</v>
+        <v>0.06279498196247436</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -2578,19 +2578,19 @@
         <v>41753</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31995</v>
+        <v>31250</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55599</v>
+        <v>55679</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03869075377260637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02964831954716152</v>
+        <v>0.0289585832327023</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05152183966922073</v>
+        <v>0.05159585003563389</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>7960</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3139</v>
+        <v>2828</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20952</v>
+        <v>18903</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03355455751335699</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01323168719219922</v>
+        <v>0.01192142181309281</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08831851293197665</v>
+        <v>0.07968296864795704</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>145</v>
@@ -2628,19 +2628,19 @@
         <v>91368</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>75009</v>
+        <v>76882</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>107292</v>
+        <v>108003</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1085242171801646</v>
+        <v>0.1085242171801647</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08909420389767102</v>
+        <v>0.0913183974622276</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1274388635813886</v>
+        <v>0.1282825868096645</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>152</v>
@@ -2649,19 +2649,19 @@
         <v>99328</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>83495</v>
+        <v>83465</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>117842</v>
+        <v>117767</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0920436014441324</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07737232401024502</v>
+        <v>0.07734399152580225</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1092000434481701</v>
+        <v>0.1091308102255485</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>75419</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52445</v>
+        <v>53001</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>98652</v>
+        <v>98454</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3179184052182898</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2210760593765616</v>
+        <v>0.2234182583777421</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4158519522445232</v>
+        <v>0.4150189889511663</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>455</v>
@@ -2699,19 +2699,19 @@
         <v>321547</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>294765</v>
+        <v>296248</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>347375</v>
+        <v>349343</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3819250141738496</v>
+        <v>0.3819250141738497</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3501135031045136</v>
+        <v>0.3518747299318951</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4126027936660665</v>
+        <v>0.4149401238240307</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>489</v>
@@ -2720,19 +2720,19 @@
         <v>396966</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>363327</v>
+        <v>360507</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>433194</v>
+        <v>432955</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3678544110598529</v>
+        <v>0.3678544110598528</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.336682339480247</v>
+        <v>0.3340686562993619</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4014251933468396</v>
+        <v>0.4012036763939944</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>151593</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>129215</v>
+        <v>128665</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>176363</v>
+        <v>175121</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6390186808043097</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5446872164788139</v>
+        <v>0.5423671318982531</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7434338868367059</v>
+        <v>0.7381983567358135</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>497</v>
@@ -2770,19 +2770,19 @@
         <v>389500</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>359847</v>
+        <v>361129</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>417777</v>
+        <v>416602</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4626372120375547</v>
+        <v>0.4626372120375549</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4274166416463623</v>
+        <v>0.4289393906722368</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4962236356323848</v>
+        <v>0.4948289851878358</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>565</v>
@@ -2791,19 +2791,19 @@
         <v>541092</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>503658</v>
+        <v>504066</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>574674</v>
+        <v>580083</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5014112337234082</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4667216605873742</v>
+        <v>0.4671002143762508</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.532529737912659</v>
+        <v>0.5375420207286002</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>143699</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>122252</v>
+        <v>123747</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>167532</v>
+        <v>169032</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04176823265156707</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03553437650610689</v>
+        <v>0.035968754008919</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04869567001104046</v>
+        <v>0.04913153256951603</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>250</v>
@@ -2916,19 +2916,19 @@
         <v>158662</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>138287</v>
+        <v>139858</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>177126</v>
+        <v>181266</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04371332811467651</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03809983904616658</v>
+        <v>0.0385326951358882</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04880039146351456</v>
+        <v>0.04994100887550106</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>413</v>
@@ -2937,19 +2937,19 @@
         <v>302361</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>272113</v>
+        <v>272654</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>335545</v>
+        <v>333700</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04276680664390441</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03848847814616393</v>
+        <v>0.03856501106238993</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04746045555460802</v>
+        <v>0.04719948987060913</v>
       </c>
     </row>
     <row r="35">
@@ -2969,16 +2969,16 @@
         <v>237385</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>300834</v>
+        <v>299427</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07771199415048101</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06899922782014316</v>
+        <v>0.06899926414949664</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08744187206002771</v>
+        <v>0.08703266105350646</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>521</v>
@@ -2987,19 +2987,19 @@
         <v>335088</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>305534</v>
+        <v>305211</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>365089</v>
+        <v>366162</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.0923211364858848</v>
+        <v>0.09232113648588483</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08417852734785336</v>
+        <v>0.08408963553480536</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1005868576827472</v>
+        <v>0.1008823435338754</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>812</v>
@@ -3008,19 +3008,19 @@
         <v>602448</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>560389</v>
+        <v>559249</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>649159</v>
+        <v>647762</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.08521204227828225</v>
+        <v>0.08521204227828223</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07926305592961838</v>
+        <v>0.07910184575275195</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09181903094119115</v>
+        <v>0.0916213999887058</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>1117687</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1055415</v>
+        <v>1059591</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1178527</v>
+        <v>1173810</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3248718163275284</v>
+        <v>0.3248718163275283</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3067715219771825</v>
+        <v>0.3079853127594542</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3425559259419169</v>
+        <v>0.3411848754732131</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1828</v>
@@ -3058,19 +3058,19 @@
         <v>1227277</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1176899</v>
+        <v>1178867</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1275714</v>
+        <v>1275028</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3381306900093974</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3242509602482176</v>
+        <v>0.3247931861822234</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3514756871960436</v>
+        <v>0.3512867579055792</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2901</v>
@@ -3079,19 +3079,19 @@
         <v>2344964</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2272572</v>
+        <v>2266134</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2433050</v>
+        <v>2429707</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3316786629206694</v>
+        <v>0.3316786629206693</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3214394163306395</v>
+        <v>0.3205287760793905</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3441378141454877</v>
+        <v>0.3436649934805192</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>1911648</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1847637</v>
+        <v>1845144</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1974660</v>
+        <v>1967815</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.5556479568704236</v>
+        <v>0.5556479568704237</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5370423726122524</v>
+        <v>0.5363175608397076</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5739633268001053</v>
+        <v>0.5719736903084364</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2637</v>
@@ -3129,19 +3129,19 @@
         <v>1908566</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1852318</v>
+        <v>1854108</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1959692</v>
+        <v>1961174</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5258348453900411</v>
+        <v>0.5258348453900412</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5103377243815365</v>
+        <v>0.5108308142176819</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5399205231153045</v>
+        <v>0.5403288290104403</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4408</v>
@@ -3150,19 +3150,19 @@
         <v>3820214</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3739921</v>
+        <v>3734750</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3903273</v>
+        <v>3908744</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.540342488157144</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5289855634472475</v>
+        <v>0.5282542076546839</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5520905257675265</v>
+        <v>0.5528643638044695</v>
       </c>
     </row>
     <row r="38">
